--- a/www.eia.gov/electricity/monthly/xls/table_1_03_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_03_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>Table 1.3.B. Utility Scale Facility Net Generation</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1389,37 +1389,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>91421</v>
+        <v>99324</v>
       </c>
       <c r="C7" s="10">
-        <v>93469</v>
+        <v>101375</v>
       </c>
       <c r="D7" s="11">
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E7" s="10">
-        <v>2085</v>
+        <v>2212</v>
       </c>
       <c r="F7" s="10">
-        <v>2954</v>
+        <v>3130</v>
       </c>
       <c r="G7" s="10">
-        <v>85958</v>
+        <v>93427</v>
       </c>
       <c r="H7" s="10">
-        <v>86976</v>
+        <v>94381</v>
       </c>
       <c r="I7" s="10">
-        <v>1065</v>
+        <v>1164</v>
       </c>
       <c r="J7" s="10">
-        <v>1096</v>
+        <v>1197</v>
       </c>
       <c r="K7" s="10">
-        <v>2313</v>
+        <v>2520</v>
       </c>
       <c r="L7" s="10">
-        <v>2443</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,37 +1427,37 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>30175</v>
+        <v>33254</v>
       </c>
       <c r="C8" s="13">
-        <v>31218</v>
+        <v>34090</v>
       </c>
       <c r="D8" s="14">
-        <v>-3.3000000000000002E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E8" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="13">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G8" s="13">
-        <v>29437</v>
+        <v>32448</v>
       </c>
       <c r="H8" s="13">
-        <v>30448</v>
+        <v>33244</v>
       </c>
       <c r="I8" s="13">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="J8" s="13">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="K8" s="13">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="L8" s="13">
-        <v>403</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1465,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>9975</v>
+        <v>10744</v>
       </c>
       <c r="C9" s="13">
-        <v>9782</v>
+        <v>10762</v>
       </c>
       <c r="D9" s="14">
-        <v>0.02</v>
+        <v>-2E-3</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>19</v>
@@ -1480,22 +1480,22 @@
         <v>0.08</v>
       </c>
       <c r="G9" s="13">
-        <v>8068</v>
+        <v>8662</v>
       </c>
       <c r="H9" s="13">
-        <v>7752</v>
+        <v>8546</v>
       </c>
       <c r="I9" s="13">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J9" s="13">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K9" s="13">
-        <v>1734</v>
+        <v>1892</v>
       </c>
       <c r="L9" s="13">
-        <v>1859</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,37 +1503,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>27965</v>
+        <v>29879</v>
       </c>
       <c r="C10" s="13">
-        <v>27791</v>
+        <v>29892</v>
       </c>
       <c r="D10" s="14">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="F10" s="13">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="G10" s="13">
-        <v>26841</v>
+        <v>28681</v>
       </c>
       <c r="H10" s="13">
-        <v>26550</v>
+        <v>28557</v>
       </c>
       <c r="I10" s="13">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="J10" s="13">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="K10" s="13">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L10" s="13">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1541,37 +1541,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>15970</v>
+        <v>17551</v>
       </c>
       <c r="C11" s="13">
-        <v>17091</v>
+        <v>18357</v>
       </c>
       <c r="D11" s="14">
-        <v>-6.6000000000000003E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E11" s="13">
-        <v>810</v>
+        <v>858</v>
       </c>
       <c r="F11" s="13">
-        <v>1552</v>
+        <v>1611</v>
       </c>
       <c r="G11" s="13">
-        <v>15087</v>
+        <v>16613</v>
       </c>
       <c r="H11" s="13">
-        <v>15449</v>
+        <v>16648</v>
       </c>
       <c r="I11" s="13">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J11" s="13">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K11" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L11" s="13">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1579,31 +1579,31 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>5719</v>
+        <v>6158</v>
       </c>
       <c r="C12" s="13">
-        <v>5974</v>
+        <v>6503</v>
       </c>
       <c r="D12" s="14">
-        <v>-4.2999999999999997E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E12" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="13">
         <v>11</v>
       </c>
       <c r="G12" s="13">
-        <v>5653</v>
+        <v>6087</v>
       </c>
       <c r="H12" s="13">
-        <v>5899</v>
+        <v>6423</v>
       </c>
       <c r="I12" s="13">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J12" s="13">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -1617,25 +1617,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="13">
-        <v>1617</v>
+        <v>1737</v>
       </c>
       <c r="C13" s="13">
-        <v>1613</v>
+        <v>1771</v>
       </c>
       <c r="D13" s="14">
-        <v>2E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="F13" s="13">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="G13" s="13">
-        <v>873</v>
+        <v>936</v>
       </c>
       <c r="H13" s="13">
-        <v>879</v>
+        <v>963</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>19</v>
@@ -1655,37 +1655,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>357446</v>
+        <v>389865</v>
       </c>
       <c r="C14" s="10">
-        <v>361120</v>
+        <v>393830</v>
       </c>
       <c r="D14" s="11">
         <v>-0.01</v>
       </c>
       <c r="E14" s="10">
-        <v>29576</v>
+        <v>32184</v>
       </c>
       <c r="F14" s="10">
-        <v>29044</v>
+        <v>31820</v>
       </c>
       <c r="G14" s="10">
-        <v>322241</v>
+        <v>351554</v>
       </c>
       <c r="H14" s="10">
-        <v>326454</v>
+        <v>355842</v>
       </c>
       <c r="I14" s="10">
-        <v>1869</v>
+        <v>2028</v>
       </c>
       <c r="J14" s="10">
-        <v>1910</v>
+        <v>2095</v>
       </c>
       <c r="K14" s="10">
-        <v>3760</v>
+        <v>4099</v>
       </c>
       <c r="L14" s="10">
-        <v>3712</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1693,37 +1693,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>65482</v>
+        <v>71064</v>
       </c>
       <c r="C15" s="13">
-        <v>62770</v>
+        <v>68319</v>
       </c>
       <c r="D15" s="14">
-        <v>4.2999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E15" s="13">
         <v>-2</v>
       </c>
       <c r="F15" s="13">
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="G15" s="13">
-        <v>64366</v>
+        <v>69855</v>
       </c>
       <c r="H15" s="13">
-        <v>61652</v>
+        <v>67087</v>
       </c>
       <c r="I15" s="13">
-        <v>572</v>
+        <v>622</v>
       </c>
       <c r="J15" s="13">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="K15" s="13">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="L15" s="13">
-        <v>591</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,37 +1731,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>113622</v>
+        <v>123514</v>
       </c>
       <c r="C16" s="13">
-        <v>117105</v>
+        <v>127880</v>
       </c>
       <c r="D16" s="14">
-        <v>-0.03</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E16" s="13">
-        <v>29518</v>
+        <v>32123</v>
       </c>
       <c r="F16" s="13">
-        <v>29016</v>
+        <v>31784</v>
       </c>
       <c r="G16" s="13">
-        <v>82231</v>
+        <v>89348</v>
       </c>
       <c r="H16" s="13">
-        <v>86282</v>
+        <v>94120</v>
       </c>
       <c r="I16" s="13">
-        <v>1051</v>
+        <v>1146</v>
       </c>
       <c r="J16" s="13">
-        <v>1032</v>
+        <v>1131</v>
       </c>
       <c r="K16" s="13">
-        <v>820</v>
+        <v>896</v>
       </c>
       <c r="L16" s="13">
-        <v>776</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,37 +1769,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>178342</v>
+        <v>195286</v>
       </c>
       <c r="C17" s="13">
-        <v>181245</v>
+        <v>197631</v>
       </c>
       <c r="D17" s="14">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>19</v>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>63</v>
       </c>
       <c r="F17" s="13">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G17" s="13">
-        <v>175643</v>
+        <v>192351</v>
       </c>
       <c r="H17" s="13">
-        <v>178520</v>
+        <v>194635</v>
       </c>
       <c r="I17" s="13">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="J17" s="13">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K17" s="13">
-        <v>2393</v>
+        <v>2613</v>
       </c>
       <c r="L17" s="13">
-        <v>2345</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,37 +1807,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>490713</v>
+        <v>533922</v>
       </c>
       <c r="C18" s="10">
-        <v>508088</v>
+        <v>552778</v>
       </c>
       <c r="D18" s="11">
         <v>-3.4000000000000002E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>208500</v>
+        <v>226120</v>
       </c>
       <c r="F18" s="10">
-        <v>216344</v>
+        <v>234822</v>
       </c>
       <c r="G18" s="10">
-        <v>272556</v>
+        <v>297305</v>
       </c>
       <c r="H18" s="10">
-        <v>281861</v>
+        <v>307099</v>
       </c>
       <c r="I18" s="10">
-        <v>1642</v>
+        <v>1782</v>
       </c>
       <c r="J18" s="10">
-        <v>1647</v>
+        <v>1812</v>
       </c>
       <c r="K18" s="10">
-        <v>8015</v>
+        <v>8716</v>
       </c>
       <c r="L18" s="10">
-        <v>8237</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,37 +1845,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>156323</v>
+        <v>170022</v>
       </c>
       <c r="C19" s="13">
-        <v>162976</v>
+        <v>178217</v>
       </c>
       <c r="D19" s="14">
-        <v>-4.1000000000000002E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E19" s="13">
-        <v>4632</v>
+        <v>4905</v>
       </c>
       <c r="F19" s="13">
-        <v>3797</v>
+        <v>4087</v>
       </c>
       <c r="G19" s="13">
-        <v>149239</v>
+        <v>162451</v>
       </c>
       <c r="H19" s="13">
-        <v>156594</v>
+        <v>171287</v>
       </c>
       <c r="I19" s="13">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="J19" s="13">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="K19" s="13">
-        <v>2116</v>
+        <v>2310</v>
       </c>
       <c r="L19" s="13">
-        <v>2178</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,37 +1883,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>84815</v>
+        <v>92245</v>
       </c>
       <c r="C20" s="13">
-        <v>88766</v>
+        <v>96336</v>
       </c>
       <c r="D20" s="14">
-        <v>-4.4999999999999998E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E20" s="13">
-        <v>72184</v>
+        <v>78386</v>
       </c>
       <c r="F20" s="13">
-        <v>75826</v>
+        <v>81752</v>
       </c>
       <c r="G20" s="13">
-        <v>9788</v>
+        <v>10784</v>
       </c>
       <c r="H20" s="13">
-        <v>9967</v>
+        <v>11333</v>
       </c>
       <c r="I20" s="13">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J20" s="13">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="K20" s="13">
-        <v>2614</v>
+        <v>2825</v>
       </c>
       <c r="L20" s="13">
-        <v>2770</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1921,37 +1921,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>95635</v>
+        <v>103863</v>
       </c>
       <c r="C21" s="13">
-        <v>94770</v>
+        <v>103752</v>
       </c>
       <c r="D21" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E21" s="13">
-        <v>66669</v>
+        <v>72000</v>
       </c>
       <c r="F21" s="13">
-        <v>72039</v>
+        <v>78770</v>
       </c>
       <c r="G21" s="13">
-        <v>26868</v>
+        <v>29561</v>
       </c>
       <c r="H21" s="13">
-        <v>20821</v>
+        <v>22883</v>
       </c>
       <c r="I21" s="13">
-        <v>815</v>
+        <v>893</v>
       </c>
       <c r="J21" s="13">
-        <v>848</v>
+        <v>933</v>
       </c>
       <c r="K21" s="13">
-        <v>1284</v>
+        <v>1409</v>
       </c>
       <c r="L21" s="13">
-        <v>1061</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1959,37 +1959,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>99249</v>
+        <v>108273</v>
       </c>
       <c r="C22" s="13">
-        <v>105823</v>
+        <v>113728</v>
       </c>
       <c r="D22" s="14">
-        <v>-6.2E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E22" s="13">
-        <v>22211</v>
+        <v>24352</v>
       </c>
       <c r="F22" s="13">
-        <v>20558</v>
+        <v>22252</v>
       </c>
       <c r="G22" s="13">
-        <v>76243</v>
+        <v>83063</v>
       </c>
       <c r="H22" s="13">
-        <v>84438</v>
+        <v>90566</v>
       </c>
       <c r="I22" s="13">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="J22" s="13">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K22" s="13">
-        <v>669</v>
+        <v>722</v>
       </c>
       <c r="L22" s="13">
-        <v>726</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1997,37 +1997,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>54692</v>
+        <v>59519</v>
       </c>
       <c r="C23" s="13">
-        <v>55753</v>
+        <v>60745</v>
       </c>
       <c r="D23" s="14">
-        <v>-1.9E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E23" s="13">
-        <v>42805</v>
+        <v>46477</v>
       </c>
       <c r="F23" s="13">
-        <v>44123</v>
+        <v>47961</v>
       </c>
       <c r="G23" s="13">
-        <v>10419</v>
+        <v>11445</v>
       </c>
       <c r="H23" s="13">
-        <v>10040</v>
+        <v>11030</v>
       </c>
       <c r="I23" s="13">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J23" s="13">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K23" s="13">
-        <v>1332</v>
+        <v>1450</v>
       </c>
       <c r="L23" s="13">
-        <v>1502</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,37 +2035,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>272210</v>
+        <v>296534</v>
       </c>
       <c r="C24" s="10">
-        <v>278052</v>
+        <v>302482</v>
       </c>
       <c r="D24" s="11">
-        <v>-2.1000000000000001E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E24" s="10">
-        <v>228753</v>
+        <v>248417</v>
       </c>
       <c r="F24" s="10">
-        <v>239083</v>
+        <v>258863</v>
       </c>
       <c r="G24" s="10">
-        <v>39381</v>
+        <v>43685</v>
       </c>
       <c r="H24" s="10">
-        <v>34985</v>
+        <v>39239</v>
       </c>
       <c r="I24" s="10">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="J24" s="10">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="K24" s="10">
-        <v>3479</v>
+        <v>3782</v>
       </c>
       <c r="L24" s="10">
-        <v>3481</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2073,37 +2073,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>45000</v>
+        <v>49241</v>
       </c>
       <c r="C25" s="13">
-        <v>48073</v>
+        <v>52054</v>
       </c>
       <c r="D25" s="14">
-        <v>-6.4000000000000001E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>33414</v>
+        <v>36351</v>
       </c>
       <c r="F25" s="13">
-        <v>35983</v>
+        <v>38551</v>
       </c>
       <c r="G25" s="13">
-        <v>9629</v>
+        <v>10761</v>
       </c>
       <c r="H25" s="13">
-        <v>10147</v>
+        <v>11366</v>
       </c>
       <c r="I25" s="13">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="J25" s="13">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K25" s="13">
-        <v>1734</v>
+        <v>1886</v>
       </c>
       <c r="L25" s="13">
-        <v>1759</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2111,25 +2111,25 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>39922</v>
+        <v>43200</v>
       </c>
       <c r="C26" s="13">
-        <v>38561</v>
+        <v>41815</v>
       </c>
       <c r="D26" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E26" s="13">
-        <v>28805</v>
+        <v>30912</v>
       </c>
       <c r="F26" s="13">
-        <v>30562</v>
+        <v>32742</v>
       </c>
       <c r="G26" s="13">
-        <v>11030</v>
+        <v>12194</v>
       </c>
       <c r="H26" s="13">
-        <v>7967</v>
+        <v>9039</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L26" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2149,37 +2149,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>49571</v>
+        <v>54383</v>
       </c>
       <c r="C27" s="13">
-        <v>47284</v>
+        <v>51866</v>
       </c>
       <c r="D27" s="14">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>39694</v>
+        <v>43460</v>
       </c>
       <c r="F27" s="13">
-        <v>38171</v>
+        <v>41647</v>
       </c>
       <c r="G27" s="13">
-        <v>8509</v>
+        <v>9431</v>
       </c>
       <c r="H27" s="13">
-        <v>7762</v>
+        <v>8717</v>
       </c>
       <c r="I27" s="13">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J27" s="13">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K27" s="13">
-        <v>1178</v>
+        <v>1284</v>
       </c>
       <c r="L27" s="13">
-        <v>1194</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2187,37 +2187,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>66813</v>
+        <v>72171</v>
       </c>
       <c r="C28" s="13">
-        <v>71421</v>
+        <v>77252</v>
       </c>
       <c r="D28" s="14">
-        <v>-6.5000000000000002E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="E28" s="13">
-        <v>64096</v>
+        <v>69284</v>
       </c>
       <c r="F28" s="13">
-        <v>69145</v>
+        <v>74757</v>
       </c>
       <c r="G28" s="13">
-        <v>2503</v>
+        <v>2654</v>
       </c>
       <c r="H28" s="13">
-        <v>2092</v>
+        <v>2302</v>
       </c>
       <c r="I28" s="13">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J28" s="13">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K28" s="13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L28" s="13">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2225,37 +2225,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>31434</v>
+        <v>34139</v>
       </c>
       <c r="C29" s="13">
-        <v>33440</v>
+        <v>36468</v>
       </c>
       <c r="D29" s="14">
-        <v>-0.06</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>28372</v>
+        <v>30739</v>
       </c>
       <c r="F29" s="13">
-        <v>30735</v>
+        <v>33441</v>
       </c>
       <c r="G29" s="13">
-        <v>2753</v>
+        <v>3066</v>
       </c>
       <c r="H29" s="13">
-        <v>2371</v>
+        <v>2668</v>
       </c>
       <c r="I29" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K29" s="13">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L29" s="13">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2263,37 +2263,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>30905</v>
+        <v>33973</v>
       </c>
       <c r="C30" s="13">
-        <v>31219</v>
+        <v>34133</v>
       </c>
       <c r="D30" s="14">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E30" s="13">
-        <v>27527</v>
+        <v>30161</v>
       </c>
       <c r="F30" s="13">
-        <v>27829</v>
+        <v>30390</v>
       </c>
       <c r="G30" s="13">
-        <v>3237</v>
+        <v>3661</v>
       </c>
       <c r="H30" s="13">
-        <v>3250</v>
+        <v>3590</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K30" s="13">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L30" s="13">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2301,25 +2301,25 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>8566</v>
+        <v>9428</v>
       </c>
       <c r="C31" s="13">
-        <v>8053</v>
+        <v>8892</v>
       </c>
       <c r="D31" s="14">
-        <v>6.4000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E31" s="13">
-        <v>6845</v>
+        <v>7509</v>
       </c>
       <c r="F31" s="13">
-        <v>6657</v>
+        <v>7335</v>
       </c>
       <c r="G31" s="13">
-        <v>1721</v>
+        <v>1918</v>
       </c>
       <c r="H31" s="13">
-        <v>1396</v>
+        <v>1557</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>19</v>
@@ -2339,37 +2339,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>690924</v>
+        <v>747533</v>
       </c>
       <c r="C32" s="10">
-        <v>673634</v>
+        <v>730865</v>
       </c>
       <c r="D32" s="11">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>573859</v>
+        <v>621396</v>
       </c>
       <c r="F32" s="10">
-        <v>565673</v>
+        <v>612988</v>
       </c>
       <c r="G32" s="10">
-        <v>100316</v>
+        <v>107754</v>
       </c>
       <c r="H32" s="10">
-        <v>90878</v>
+        <v>99143</v>
       </c>
       <c r="I32" s="10">
-        <v>1193</v>
+        <v>1296</v>
       </c>
       <c r="J32" s="10">
-        <v>1099</v>
+        <v>1212</v>
       </c>
       <c r="K32" s="10">
-        <v>15557</v>
+        <v>17086</v>
       </c>
       <c r="L32" s="10">
-        <v>15983</v>
+        <v>17522</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2377,37 +2377,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="13">
-        <v>7803</v>
+        <v>8360</v>
       </c>
       <c r="C33" s="13">
-        <v>6957</v>
+        <v>7379</v>
       </c>
       <c r="D33" s="14">
-        <v>0.122</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="13">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G33" s="13">
-        <v>6653</v>
+        <v>7102</v>
       </c>
       <c r="H33" s="13">
-        <v>5900</v>
+        <v>6229</v>
       </c>
       <c r="I33" s="13">
         <v>6</v>
       </c>
       <c r="J33" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" s="13">
-        <v>1088</v>
+        <v>1191</v>
       </c>
       <c r="L33" s="13">
-        <v>1007</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2415,13 +2415,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="13">
+        <v>51</v>
+      </c>
+      <c r="C34" s="13">
         <v>47</v>
       </c>
-      <c r="C34" s="13">
-        <v>41</v>
-      </c>
       <c r="D34" s="14">
-        <v>0.14399999999999999</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="13">
+        <v>26</v>
+      </c>
+      <c r="I34" s="13">
+        <v>51</v>
+      </c>
+      <c r="J34" s="13">
         <v>21</v>
-      </c>
-      <c r="I34" s="13">
-        <v>47</v>
-      </c>
-      <c r="J34" s="13">
-        <v>19</v>
       </c>
       <c r="K34" s="13">
         <v>0</v>
@@ -2453,37 +2453,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>203750</v>
+        <v>220161</v>
       </c>
       <c r="C35" s="13">
-        <v>201121</v>
+        <v>219086</v>
       </c>
       <c r="D35" s="14">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E35" s="13">
-        <v>184549</v>
+        <v>199511</v>
       </c>
       <c r="F35" s="13">
-        <v>185062</v>
+        <v>201278</v>
       </c>
       <c r="G35" s="13">
-        <v>14767</v>
+        <v>15778</v>
       </c>
       <c r="H35" s="13">
-        <v>11514</v>
+        <v>12855</v>
       </c>
       <c r="I35" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J35" s="13">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K35" s="13">
-        <v>4347</v>
+        <v>4778</v>
       </c>
       <c r="L35" s="13">
-        <v>4479</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,37 +2491,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>113571</v>
+        <v>122855</v>
       </c>
       <c r="C36" s="13">
-        <v>109966</v>
+        <v>119126</v>
       </c>
       <c r="D36" s="14">
-        <v>3.3000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E36" s="13">
-        <v>98075</v>
+        <v>106322</v>
       </c>
       <c r="F36" s="13">
-        <v>94360</v>
+        <v>102026</v>
       </c>
       <c r="G36" s="13">
-        <v>11378</v>
+        <v>11990</v>
       </c>
       <c r="H36" s="13">
-        <v>11368</v>
+        <v>12426</v>
       </c>
       <c r="I36" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="13">
-        <v>4107</v>
+        <v>4530</v>
       </c>
       <c r="L36" s="13">
-        <v>4226</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2529,37 +2529,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>32213</v>
+        <v>34437</v>
       </c>
       <c r="C37" s="13">
-        <v>31575</v>
+        <v>34069</v>
       </c>
       <c r="D37" s="14">
-        <v>0.02</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E37" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="13">
-        <v>31522</v>
+        <v>33685</v>
       </c>
       <c r="H37" s="13">
-        <v>30889</v>
+        <v>33324</v>
       </c>
       <c r="I37" s="13">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="J37" s="13">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="K37" s="13">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L37" s="13">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,37 +2567,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>111476</v>
+        <v>120416</v>
       </c>
       <c r="C38" s="13">
-        <v>109337</v>
+        <v>118687</v>
       </c>
       <c r="D38" s="14">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>100659</v>
+        <v>108870</v>
       </c>
       <c r="F38" s="13">
-        <v>101427</v>
+        <v>110206</v>
       </c>
       <c r="G38" s="13">
-        <v>9051</v>
+        <v>9605</v>
       </c>
       <c r="H38" s="13">
-        <v>6080</v>
+        <v>6456</v>
       </c>
       <c r="I38" s="13">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="J38" s="13">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K38" s="13">
-        <v>1546</v>
+        <v>1704</v>
       </c>
       <c r="L38" s="13">
-        <v>1652</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2605,37 +2605,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>81505</v>
+        <v>88823</v>
       </c>
       <c r="C39" s="13">
-        <v>82032</v>
+        <v>89001</v>
       </c>
       <c r="D39" s="14">
-        <v>-6.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E39" s="13">
-        <v>77206</v>
+        <v>83866</v>
       </c>
       <c r="F39" s="13">
-        <v>78637</v>
+        <v>85251</v>
       </c>
       <c r="G39" s="13">
-        <v>2755</v>
+        <v>3280</v>
       </c>
       <c r="H39" s="13">
-        <v>1964</v>
+        <v>2206</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="13">
-        <v>1532</v>
+        <v>1664</v>
       </c>
       <c r="L39" s="13">
-        <v>1428</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2643,37 +2643,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>77701</v>
+        <v>84224</v>
       </c>
       <c r="C40" s="13">
-        <v>71345</v>
+        <v>76902</v>
       </c>
       <c r="D40" s="14">
-        <v>8.8999999999999996E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>63858</v>
+        <v>69298</v>
       </c>
       <c r="F40" s="13">
-        <v>57596</v>
+        <v>61632</v>
       </c>
       <c r="G40" s="13">
-        <v>11488</v>
+        <v>12337</v>
       </c>
       <c r="H40" s="13">
-        <v>11350</v>
+        <v>12615</v>
       </c>
       <c r="I40" s="13">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="J40" s="13">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="K40" s="13">
-        <v>1993</v>
+        <v>2191</v>
       </c>
       <c r="L40" s="13">
-        <v>2014</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,25 +2681,25 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>62859</v>
+        <v>68205</v>
       </c>
       <c r="C41" s="13">
-        <v>61261</v>
+        <v>66570</v>
       </c>
       <c r="D41" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>49439</v>
+        <v>53449</v>
       </c>
       <c r="F41" s="13">
-        <v>48529</v>
+        <v>52528</v>
       </c>
       <c r="G41" s="13">
-        <v>12701</v>
+        <v>13976</v>
       </c>
       <c r="H41" s="13">
-        <v>11790</v>
+        <v>13005</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="L41" s="13">
-        <v>942</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2719,37 +2719,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>310098</v>
+        <v>335913</v>
       </c>
       <c r="C42" s="10">
-        <v>320322</v>
+        <v>347269</v>
       </c>
       <c r="D42" s="11">
-        <v>-3.2000000000000001E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E42" s="10">
-        <v>262262</v>
+        <v>283994</v>
       </c>
       <c r="F42" s="10">
-        <v>272635</v>
+        <v>295182</v>
       </c>
       <c r="G42" s="10">
-        <v>40331</v>
+        <v>43676</v>
       </c>
       <c r="H42" s="10">
-        <v>40150</v>
+        <v>43793</v>
       </c>
       <c r="I42" s="10">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J42" s="10">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K42" s="10">
-        <v>7374</v>
+        <v>8100</v>
       </c>
       <c r="L42" s="10">
-        <v>7409</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>120515</v>
+        <v>131198</v>
       </c>
       <c r="C43" s="13">
-        <v>128270</v>
+        <v>139954</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.06</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E43" s="13">
-        <v>82913</v>
+        <v>90200</v>
       </c>
       <c r="F43" s="13">
-        <v>90786</v>
+        <v>99165</v>
       </c>
       <c r="G43" s="13">
-        <v>34154</v>
+        <v>37211</v>
       </c>
       <c r="H43" s="13">
-        <v>33978</v>
+        <v>36945</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>3447</v>
+        <v>3787</v>
       </c>
       <c r="L43" s="13">
-        <v>3506</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2795,25 +2795,25 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>67705</v>
+        <v>73139</v>
       </c>
       <c r="C44" s="13">
-        <v>72182</v>
+        <v>77479</v>
       </c>
       <c r="D44" s="14">
-        <v>-6.2E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>66726</v>
+        <v>72090</v>
       </c>
       <c r="F44" s="13">
-        <v>71113</v>
+        <v>76349</v>
       </c>
       <c r="G44" s="13">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="H44" s="13">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="L44" s="13">
-        <v>482</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2833,37 +2833,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>55152</v>
+        <v>58576</v>
       </c>
       <c r="C45" s="13">
-        <v>54888</v>
+        <v>59876</v>
       </c>
       <c r="D45" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="E45" s="13">
-        <v>48034</v>
+        <v>51046</v>
       </c>
       <c r="F45" s="13">
-        <v>47862</v>
+        <v>52025</v>
       </c>
       <c r="G45" s="13">
-        <v>5518</v>
+        <v>5772</v>
       </c>
       <c r="H45" s="13">
-        <v>5425</v>
+        <v>6082</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K45" s="13">
-        <v>1592</v>
+        <v>1748</v>
       </c>
       <c r="L45" s="13">
-        <v>1596</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,37 +2871,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>66727</v>
+        <v>73000</v>
       </c>
       <c r="C46" s="13">
-        <v>64982</v>
+        <v>69960</v>
       </c>
       <c r="D46" s="14">
-        <v>2.7E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>64589</v>
+        <v>70657</v>
       </c>
       <c r="F46" s="13">
-        <v>62874</v>
+        <v>67643</v>
       </c>
       <c r="G46" s="13">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H46" s="13">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I46" s="13">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J46" s="13">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K46" s="13">
-        <v>1847</v>
+        <v>2026</v>
       </c>
       <c r="L46" s="13">
-        <v>1825</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,37 +2909,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>593154</v>
+        <v>643838</v>
       </c>
       <c r="C47" s="10">
-        <v>586533</v>
+        <v>635507</v>
       </c>
       <c r="D47" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E47" s="10">
-        <v>206166</v>
+        <v>221752</v>
       </c>
       <c r="F47" s="10">
-        <v>208834</v>
+        <v>224232</v>
       </c>
       <c r="G47" s="10">
-        <v>320982</v>
+        <v>349413</v>
       </c>
       <c r="H47" s="10">
-        <v>314719</v>
+        <v>341887</v>
       </c>
       <c r="I47" s="10">
-        <v>860</v>
+        <v>939</v>
       </c>
       <c r="J47" s="10">
-        <v>765</v>
+        <v>821</v>
       </c>
       <c r="K47" s="10">
-        <v>65145</v>
+        <v>71734</v>
       </c>
       <c r="L47" s="10">
-        <v>62216</v>
+        <v>68567</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,37 +2947,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>51179</v>
+        <v>55197</v>
       </c>
       <c r="C48" s="13">
-        <v>48641</v>
+        <v>51730</v>
       </c>
       <c r="D48" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E48" s="13">
-        <v>36837</v>
+        <v>39424</v>
       </c>
       <c r="F48" s="13">
-        <v>34423</v>
+        <v>36612</v>
       </c>
       <c r="G48" s="13">
-        <v>12990</v>
+        <v>14276</v>
       </c>
       <c r="H48" s="13">
-        <v>12763</v>
+        <v>13508</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" s="13">
-        <v>1348</v>
+        <v>1492</v>
       </c>
       <c r="L48" s="13">
-        <v>1449</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2985,37 +2985,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>90388</v>
+        <v>98193</v>
       </c>
       <c r="C49" s="13">
-        <v>90851</v>
+        <v>98877</v>
       </c>
       <c r="D49" s="14">
-        <v>-5.0000000000000001E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E49" s="13">
-        <v>55075</v>
+        <v>59616</v>
       </c>
       <c r="F49" s="13">
-        <v>56188</v>
+        <v>60642</v>
       </c>
       <c r="G49" s="13">
-        <v>8804</v>
+        <v>9430</v>
       </c>
       <c r="H49" s="13">
-        <v>9373</v>
+        <v>10195</v>
       </c>
       <c r="I49" s="13">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J49" s="13">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K49" s="13">
-        <v>26366</v>
+        <v>28991</v>
       </c>
       <c r="L49" s="13">
-        <v>25145</v>
+        <v>27880</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3023,25 +3023,25 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>65380</v>
+        <v>71429</v>
       </c>
       <c r="C50" s="13">
-        <v>63655</v>
+        <v>69703</v>
       </c>
       <c r="D50" s="14">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E50" s="13">
-        <v>37910</v>
+        <v>41194</v>
       </c>
       <c r="F50" s="13">
-        <v>41399</v>
+        <v>44800</v>
       </c>
       <c r="G50" s="13">
-        <v>26709</v>
+        <v>29411</v>
       </c>
       <c r="H50" s="13">
-        <v>21525</v>
+        <v>24094</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>19</v>
@@ -3050,10 +3050,10 @@
         <v>0.02</v>
       </c>
       <c r="K50" s="13">
-        <v>746</v>
+        <v>807</v>
       </c>
       <c r="L50" s="13">
-        <v>730</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3061,37 +3061,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>386206</v>
+        <v>419019</v>
       </c>
       <c r="C51" s="13">
-        <v>383386</v>
+        <v>415197</v>
       </c>
       <c r="D51" s="14">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E51" s="13">
-        <v>76344</v>
+        <v>81518</v>
       </c>
       <c r="F51" s="13">
-        <v>76823</v>
+        <v>82178</v>
       </c>
       <c r="G51" s="13">
-        <v>272479</v>
+        <v>296296</v>
       </c>
       <c r="H51" s="13">
-        <v>271057</v>
+        <v>294090</v>
       </c>
       <c r="I51" s="13">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="J51" s="13">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="K51" s="13">
-        <v>36685</v>
+        <v>40444</v>
       </c>
       <c r="L51" s="13">
-        <v>34891</v>
+        <v>38274</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,37 +3099,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>304762</v>
+        <v>332339</v>
       </c>
       <c r="C52" s="10">
-        <v>312877</v>
+        <v>341032</v>
       </c>
       <c r="D52" s="11">
-        <v>-2.5999999999999999E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>237425</v>
+        <v>258982</v>
       </c>
       <c r="F52" s="10">
-        <v>250612</v>
+        <v>272447</v>
       </c>
       <c r="G52" s="10">
-        <v>64113</v>
+        <v>69856</v>
       </c>
       <c r="H52" s="10">
-        <v>58910</v>
+        <v>64921</v>
       </c>
       <c r="I52" s="10">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="J52" s="10">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="K52" s="10">
-        <v>2778</v>
+        <v>3014</v>
       </c>
       <c r="L52" s="10">
-        <v>2910</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3137,31 +3137,31 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>93456</v>
+        <v>100532</v>
       </c>
       <c r="C53" s="13">
-        <v>96289</v>
+        <v>104246</v>
       </c>
       <c r="D53" s="14">
-        <v>-2.9000000000000001E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>76294</v>
+        <v>82471</v>
       </c>
       <c r="F53" s="13">
-        <v>79873</v>
+        <v>86559</v>
       </c>
       <c r="G53" s="13">
-        <v>17041</v>
+        <v>17927</v>
       </c>
       <c r="H53" s="13">
-        <v>16285</v>
+        <v>17547</v>
       </c>
       <c r="I53" s="13">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J53" s="13">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K53" s="13">
         <v>0</v>
@@ -3175,37 +3175,37 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>45125</v>
+        <v>49457</v>
       </c>
       <c r="C54" s="13">
-        <v>43250</v>
+        <v>47391</v>
       </c>
       <c r="D54" s="14">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E54" s="13">
-        <v>35139</v>
+        <v>38370</v>
       </c>
       <c r="F54" s="13">
-        <v>34929</v>
+        <v>38225</v>
       </c>
       <c r="G54" s="13">
-        <v>9901</v>
+        <v>10996</v>
       </c>
       <c r="H54" s="13">
-        <v>8240</v>
+        <v>9077</v>
       </c>
       <c r="I54" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J54" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K54" s="13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L54" s="13">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3213,37 +3213,37 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>13742</v>
+        <v>14746</v>
       </c>
       <c r="C55" s="13">
-        <v>13382</v>
+        <v>14402</v>
       </c>
       <c r="D55" s="14">
-        <v>2.7E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E55" s="13">
-        <v>9137</v>
+        <v>9723</v>
       </c>
       <c r="F55" s="13">
-        <v>8952</v>
+        <v>9470</v>
       </c>
       <c r="G55" s="13">
-        <v>4115</v>
+        <v>4483</v>
       </c>
       <c r="H55" s="13">
-        <v>3930</v>
+        <v>4376</v>
       </c>
       <c r="I55" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K55" s="13">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="L55" s="13">
-        <v>484</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3251,25 +3251,25 @@
         <v>66</v>
       </c>
       <c r="B56" s="13">
-        <v>22646</v>
+        <v>25354</v>
       </c>
       <c r="C56" s="13">
-        <v>24302</v>
+        <v>26704</v>
       </c>
       <c r="D56" s="14">
-        <v>-6.8000000000000005E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E56" s="13">
-        <v>8766</v>
+        <v>9888</v>
       </c>
       <c r="F56" s="13">
-        <v>9059</v>
+        <v>9752</v>
       </c>
       <c r="G56" s="13">
-        <v>13855</v>
+        <v>15440</v>
       </c>
       <c r="H56" s="13">
-        <v>15221</v>
+        <v>16926</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="13">
+        <v>27</v>
+      </c>
+      <c r="L56" s="13">
         <v>25</v>
-      </c>
-      <c r="L56" s="13">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3289,37 +3289,37 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>33626</v>
+        <v>36583</v>
       </c>
       <c r="C57" s="13">
-        <v>32695</v>
+        <v>35668</v>
       </c>
       <c r="D57" s="14">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E57" s="13">
-        <v>25201</v>
+        <v>27349</v>
       </c>
       <c r="F57" s="13">
-        <v>25679</v>
+        <v>27894</v>
       </c>
       <c r="G57" s="13">
-        <v>8037</v>
+        <v>8814</v>
       </c>
       <c r="H57" s="13">
-        <v>6661</v>
+        <v>7387</v>
       </c>
       <c r="I57" s="13">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J57" s="13">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K57" s="13">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="L57" s="13">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3327,31 +3327,31 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>26994</v>
+        <v>29831</v>
       </c>
       <c r="C58" s="13">
-        <v>26854</v>
+        <v>29613</v>
       </c>
       <c r="D58" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E58" s="13">
-        <v>20136</v>
+        <v>22448</v>
       </c>
       <c r="F58" s="13">
-        <v>21499</v>
+        <v>23627</v>
       </c>
       <c r="G58" s="13">
-        <v>6753</v>
+        <v>7269</v>
       </c>
       <c r="H58" s="13">
-        <v>5251</v>
+        <v>5873</v>
       </c>
       <c r="I58" s="13">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J58" s="13">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>19</v>
@@ -3365,37 +3365,37 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>31172</v>
+        <v>34184</v>
       </c>
       <c r="C59" s="13">
-        <v>35423</v>
+        <v>38254</v>
       </c>
       <c r="D59" s="14">
-        <v>-0.12</v>
+        <v>-0.106</v>
       </c>
       <c r="E59" s="13">
-        <v>28089</v>
+        <v>30795</v>
       </c>
       <c r="F59" s="13">
-        <v>33248</v>
+        <v>35898</v>
       </c>
       <c r="G59" s="13">
-        <v>2068</v>
+        <v>2316</v>
       </c>
       <c r="H59" s="13">
-        <v>1237</v>
+        <v>1358</v>
       </c>
       <c r="I59" s="13">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J59" s="13">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K59" s="13">
-        <v>943</v>
+        <v>993</v>
       </c>
       <c r="L59" s="13">
-        <v>862</v>
+        <v>914</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3403,25 +3403,25 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>38000</v>
+        <v>41652</v>
       </c>
       <c r="C60" s="13">
-        <v>40683</v>
+        <v>44754</v>
       </c>
       <c r="D60" s="14">
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>34662</v>
+        <v>37937</v>
       </c>
       <c r="F60" s="13">
-        <v>37373</v>
+        <v>41022</v>
       </c>
       <c r="G60" s="13">
-        <v>2344</v>
+        <v>2612</v>
       </c>
       <c r="H60" s="13">
-        <v>2084</v>
+        <v>2377</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>994</v>
+        <v>1103</v>
       </c>
       <c r="L60" s="13">
-        <v>1226</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,37 +3441,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>312395</v>
+        <v>340029</v>
       </c>
       <c r="C61" s="10">
-        <v>304902</v>
+        <v>333083</v>
       </c>
       <c r="D61" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>186020</v>
+        <v>202902</v>
       </c>
       <c r="F61" s="10">
-        <v>172650</v>
+        <v>188628</v>
       </c>
       <c r="G61" s="10">
-        <v>110683</v>
+        <v>119899</v>
       </c>
       <c r="H61" s="10">
-        <v>115943</v>
+        <v>126497</v>
       </c>
       <c r="I61" s="10">
-        <v>2372</v>
+        <v>2600</v>
       </c>
       <c r="J61" s="10">
-        <v>2526</v>
+        <v>2759</v>
       </c>
       <c r="K61" s="10">
-        <v>13320</v>
+        <v>14628</v>
       </c>
       <c r="L61" s="10">
-        <v>13782</v>
+        <v>15198</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3479,37 +3479,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>169188</v>
+        <v>183495</v>
       </c>
       <c r="C62" s="13">
-        <v>167114</v>
+        <v>181240</v>
       </c>
       <c r="D62" s="14">
         <v>1.2E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>68805</v>
+        <v>74410</v>
       </c>
       <c r="F62" s="13">
-        <v>60535</v>
+        <v>65558</v>
       </c>
       <c r="G62" s="13">
-        <v>86545</v>
+        <v>93898</v>
       </c>
       <c r="H62" s="13">
-        <v>92195</v>
+        <v>99851</v>
       </c>
       <c r="I62" s="13">
-        <v>2270</v>
+        <v>2489</v>
       </c>
       <c r="J62" s="13">
-        <v>2436</v>
+        <v>2657</v>
       </c>
       <c r="K62" s="13">
-        <v>11568</v>
+        <v>12698</v>
       </c>
       <c r="L62" s="13">
-        <v>11948</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3517,37 +3517,37 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>49857</v>
+        <v>54315</v>
       </c>
       <c r="C63" s="13">
-        <v>47110</v>
+        <v>52215</v>
       </c>
       <c r="D63" s="14">
-        <v>5.8000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E63" s="13">
-        <v>36315</v>
+        <v>39761</v>
       </c>
       <c r="F63" s="13">
-        <v>33768</v>
+        <v>37327</v>
       </c>
       <c r="G63" s="13">
-        <v>13001</v>
+        <v>13960</v>
       </c>
       <c r="H63" s="13">
-        <v>12720</v>
+        <v>14201</v>
       </c>
       <c r="I63" s="13">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J63" s="13">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K63" s="13">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="L63" s="13">
-        <v>559</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3555,37 +3555,37 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>93350</v>
+        <v>102219</v>
       </c>
       <c r="C64" s="13">
-        <v>90678</v>
+        <v>99628</v>
       </c>
       <c r="D64" s="14">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>80900</v>
+        <v>88731</v>
       </c>
       <c r="F64" s="13">
-        <v>78347</v>
+        <v>85742</v>
       </c>
       <c r="G64" s="13">
-        <v>11136</v>
+        <v>12041</v>
       </c>
       <c r="H64" s="13">
-        <v>11028</v>
+        <v>12446</v>
       </c>
       <c r="I64" s="13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J64" s="13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K64" s="13">
-        <v>1279</v>
+        <v>1409</v>
       </c>
       <c r="L64" s="13">
-        <v>1275</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3593,37 +3593,37 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>12447</v>
+        <v>13695</v>
       </c>
       <c r="C65" s="10">
-        <v>13524</v>
+        <v>14953</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.08</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>8149</v>
+        <v>8946</v>
       </c>
       <c r="F65" s="10">
-        <v>9282</v>
+        <v>10245</v>
       </c>
       <c r="G65" s="10">
-        <v>3398</v>
+        <v>3757</v>
       </c>
       <c r="H65" s="10">
-        <v>3334</v>
+        <v>3709</v>
       </c>
       <c r="I65" s="10">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="J65" s="10">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="K65" s="10">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="L65" s="10">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3631,37 +3631,37 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>4464</v>
+        <v>4917</v>
       </c>
       <c r="C66" s="13">
-        <v>5131</v>
+        <v>5686</v>
       </c>
       <c r="D66" s="14">
-        <v>-0.13</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="E66" s="13">
-        <v>4069</v>
+        <v>4484</v>
       </c>
       <c r="F66" s="13">
-        <v>4688</v>
+        <v>5196</v>
       </c>
       <c r="G66" s="13">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H66" s="13">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="I66" s="13">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J66" s="13">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K66" s="13">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="L66" s="13">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,37 +3669,37 @@
         <v>77</v>
       </c>
       <c r="B67" s="13">
-        <v>7983</v>
+        <v>8778</v>
       </c>
       <c r="C67" s="13">
-        <v>8393</v>
+        <v>9267</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.9000000000000002E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>4079</v>
+        <v>4463</v>
       </c>
       <c r="F67" s="13">
-        <v>4594</v>
+        <v>5050</v>
       </c>
       <c r="G67" s="13">
-        <v>3234</v>
+        <v>3579</v>
       </c>
       <c r="H67" s="13">
-        <v>3130</v>
+        <v>3480</v>
       </c>
       <c r="I67" s="13">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="J67" s="13">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="K67" s="13">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="L67" s="13">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3707,37 +3707,37 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>3435570</v>
+        <v>3732992</v>
       </c>
       <c r="C68" s="10">
-        <v>3452520</v>
+        <v>3753174</v>
       </c>
       <c r="D68" s="11">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E68" s="10">
-        <v>1942794</v>
+        <v>2106905</v>
       </c>
       <c r="F68" s="10">
-        <v>1967110</v>
+        <v>2132358</v>
       </c>
       <c r="G68" s="10">
-        <v>1359958</v>
+        <v>1480326</v>
       </c>
       <c r="H68" s="10">
-        <v>1354209</v>
+        <v>1476513</v>
       </c>
       <c r="I68" s="10">
-        <v>10647</v>
+        <v>11608</v>
       </c>
       <c r="J68" s="10">
-        <v>10570</v>
+        <v>11562</v>
       </c>
       <c r="K68" s="10">
-        <v>122170</v>
+        <v>134153</v>
       </c>
       <c r="L68" s="10">
-        <v>120632</v>
+        <v>132742</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
